--- a/graph_generation/results/hermes_llama2/level_4/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_4/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>prompt</t>
   </si>
@@ -30,7 +30,7 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -49,21 +49,18 @@
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 2 1 0 0 5 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 5 5 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- G 0 5 0 0 0 0 0 3 2 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 2 0 0 3 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 3 0 0 2
- K 0 0 0 0 0 0 0 0 0 3 0 5 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 1 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 3
- N 0 0 0 0 0 0 0 0 0 2 0 0 3 0
+   A B C D E F G H I J K
+ A 0 5 5 0 0 0 0 3 0 0 4
+ B 5 0 0 0 0 0 0 0 0 0 0
+ C 5 0 0 5 5 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 5 0 0 0 0 0
+ F 0 0 0 0 5 0 5 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 0
+ H 3 0 0 0 0 0 0 0 4 2 0
+ I 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 2 0 0 0
+ K 4 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -87,20 +84,20 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N
- A 0 2 4 0 0 0 0 1 0 0 0 0 3 3
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 5 2 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 2 0 0 2 0 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 1 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 5 0 0 2 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 1 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 5 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 1 0 0 0 0 0 0 0
  G 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- H 1 0 0 0 0 0 0 0 5 5 4 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 4 0 0 0 4 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 2 0
- M 3 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 5 0 0 0 0 0 0 0 1 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 2 0 2 4 2
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ K 2 0 0 0 0 0 0 0 0 0 0 3 0 0
+ L 0 0 0 0 0 0 0 0 2 0 3 0 0 0
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 4
+ N 0 0 0 0 0 0 0 0 2 0 0 0 4 0
     </t>
   </si>
   <si>
@@ -124,22 +121,22 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L
- A 0 2 4 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 2 0 0 0 0 4 0 2 0
- D 0 0 2 0 1 0 0 0 0 0 0 0
- E 0 0 0 1 0 2 0 0 0 0 0 0
- F 0 0 0 0 2 0 4 0 0 0 0 0
- G 0 0 0 0 0 4 0 2 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 0
- I 0 0 4 0 0 0 0 0 0 4 0 5
- J 0 0 0 0 0 0 0 0 4 0 0 0
- K 0 0 2 0 0 0 0 0 0 0 0 4
- L 0 0 0 0 0 0 0 0 5 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 5 0 0 0 0 0 0 0 0 0 0
+ B 5 0 1 0 0 0 2 3 0 0 0 2
+ C 0 1 0 4 5 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 4 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0
+ G 0 2 0 0 0 0 0 0 0 0 0 0
+ H 0 3 0 0 0 0 0 0 1 1 3 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 3 0 0 0 3
+ L 0 2 0 0 0 0 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -158,22 +155,18 @@
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 1 0 0 0 0 0 0 0 0 0 0 0 4
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 2 2 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 2 0 0 1 2 5 5 3 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
- O 4 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+   A B C D E F G H I J K
+ A 0 2 0 0 0 3 0 0 0 0 3
+ B 2 0 4 0 0 0 0 0 0 0 0
+ C 0 4 0 3 4 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 4 0 0 0 0 0 0 0 0
+ F 3 0 0 0 0 0 3 4 0 2 4
+ G 0 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 4 0 0 3 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 2 0 0 0 0 0
+ K 3 0 0 0 0 4 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -197,26 +190,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 5
- C 0 2 0 3 3 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 4 0 0 0 0 0 0 0 0 1 0 0 0 0
+ C 0 4 0 3 2 0 0 3 1 0 0 0 0 0 0 1
  D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 3 0 0 0 4 0 0 0 0 0
- G 0 0 0 0 0 3 0 4 4 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
- P 0 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ E 0 0 2 0 0 4 2 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 5 0 1 0 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0
+ L 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3
+ P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 18 nodes labelled A to R. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -235,22 +228,29 @@
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K
- A 0 3 0 0 0 4 0 0 0 0 0
- B 3 0 3 3 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 2 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0
- F 4 0 0 0 0 0 2 0 0 0 0
- G 0 0 0 0 0 2 0 3 4 0 3
- H 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 4 0 0 5 0
- J 0 0 0 0 0 0 0 0 5 0 1
- K 0 0 0 0 0 0 3 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P Q R
+ A 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 4 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 4 0 0 0 0 3 0 0 0 0 0 0 3
+ F 0 0 0 0 4 0 2 0 1 0 0 0 0 0 4 0 0 0
+ G 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 4 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 3 0 0 0 0 0 0 2 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0
+ O 0 0 0 0 0 4 0 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ R 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -269,32 +269,24 @@
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 5 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- B 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 4 0 0 4 5 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- K 4 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0
- R 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
- U 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M
+ A 0 2 1 0 0 0 0 0 2 0 0 0 5
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 5 0 3 0 0 0 0 0 0
+ E 0 0 0 5 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 3 0 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0
+ I 2 0 0 0 0 0 0 0 0 3 4 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0
+ K 0 0 0 0 0 0 0 0 4 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1
+ M 5 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -313,29 +305,22 @@
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 4 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 5 0 0 5 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- D 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 2 4 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4
- F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 4 0 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0
- O 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- P 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1
- V 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+   A B C D E F G H I J K L M N O
+ A 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0
+ B 3 0 2 4 0 0 0 0 0 5 0 0 3 0 1
+ C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 2 2 0 2 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ J 0 5 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ L 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ M 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
+ O 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -359,23 +344,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J K L M
- A 0 4 4 2 0 0 0 0 0 1 5 4 5
+ A 0 4 5 0 0 0 0 0 0 0 0 0 5
  B 4 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 2 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 4 0 1 1 0 0 0 0
- F 0 0 0 0 4 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0
- H 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 0
- J 1 0 0 0 0 0 0 0 0 0 0 0 3
- K 5 0 0 0 0 0 0 0 0 0 0 1 0
- L 4 0 0 0 0 0 0 0 0 0 1 0 0
- M 5 0 0 0 0 0 0 0 0 3 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ C 5 0 0 1 0 0 0 0 0 0 4 0 0
+ D 0 0 1 0 5 0 0 0 0 4 0 0 0
+ E 0 0 0 5 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 5 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0
+ J 0 0 0 4 0 0 0 0 0 0 0 0 0
+ K 0 0 4 0 0 0 0 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 2
+ M 5 0 0 0 0 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
@@ -394,84 +379,70 @@
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node J? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 5 4 0 5 0 0 0 0 0 1 0
- E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 3 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 3 0 3 0 0 0 0 5
- J 0 0 0 0 0 0 0 0 3 0 2 0 3 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0
- M 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0
- N 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2
- O 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; I -&gt; J</t>
+   A B C D E F G H I J K L M
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 3 0 1 0 4 0 0 0 0 0 0
+ C 0 3 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 4 0 0 0 0 0 1 0 0 0 0 1
+ H 0 0 0 0 0 0 1 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 4 3 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0
+ K 0 0 0 0 0 0 0 0 3 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 4
+ M 0 0 0 0 0 0 1 0 0 0 0 4 0
+    </t>
   </si>
   <si>
     <t>A -&gt; H -&gt; J</t>
   </si>
   <si>
-    <t>A -&gt; C -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; F -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; K -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; E -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; J</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J</t>
+    <t>A -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; H -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; L -&gt; K -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; L -&gt; K -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; D -&gt; J</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>The least cost path from node A to node J is A -&gt; C -&gt; J.</t>
   </si>
   <si>
-    <t>The least cost path from node A to node J is A -&gt; C -&gt; H -&gt; I -&gt; J. The sequence of nodes is A, C, H, I, and J.</t>
-  </si>
-  <si>
     <t>The least cost path from node A to node J is A -&gt; C -&gt; I -&gt; J.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node J is A -&gt; F -&gt; J.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node J:
 A -&gt; B -&gt; C -&gt; H -&gt; I -&gt; J
-The total cost of this path is 3 + 4 + 2 + 0 + 3 + 0 = 14.</t>
+The total cost of this path is 3 + 4 + 3 + 2 + 3 + 1 = 17.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node J:
 A -&gt; B -&gt; C -&gt; H -&gt; I -&gt; J
-The total cost of this path is 3 + 2 + 3 + 3 + 3 = 14.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance of the starting node (A) to 0 and the distance of all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited. Update the distances of its neighbors (B and C).
-3. Select the next unvisited node with the smallest distance (B) and mark it as visited. Update the distances of its neighbors (C and D).
-4. Select the next unvisited node with the smallest distance (C) and mark it as visited. Update the distances of its neighbors (H and I).
-5. Select the next unvisited node with the smallest distance (H) and mark it as visited. Update the distances of its neighbors (G and J).
-6. Select the next unvisited node with the smallest distance (G) and mark it as visited. Update the distances of its neighbors (I and J).
-7. Select the next unvisited node with the smallest distance (I) and mark it as visited. Update the distances of its neighbors (J).
-8. Select the next unvisited node with the smallest distance (J) and mark it as visited. Since this is the destination node, we can stop the algorithm.
-The least cost path from node A to node J is A -&gt; B -&gt; C -&gt; H -&gt; G -&gt; I -&gt; J, and the total cost is 3 + 2 + 5 + 1 + 1 + 3 = 15.</t>
+The total cost of this path is 2 + 4 + 2 + 2 + 3 = 13.</t>
   </si>
   <si>
     <t>The least cost path from node A to node J is A -&gt; B -&gt; C -&gt; H -&gt; I -&gt; J. The sequence of nodes is A, B, C, H, I, and J.</t>
@@ -483,7 +454,7 @@
     <t>Correct</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -516,37 +487,34 @@
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 4 0 0 0 2 5 0 0 5 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 4 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 2
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ E 0 0 0 3 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 5 0 0 4 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 3 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 4 4 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 5 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ U 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -579,30 +547,33 @@
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 3 0 4
- J 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 3 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 2 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 2 0
- U 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1
- W 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 2 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 4 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 2 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 4
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0
     </t>
   </si>
   <si>
@@ -640,36 +611,36 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- B 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- F 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 4 0 2 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2
- Z 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 3 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 5 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 5 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ Z 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -702,34 +673,35 @@
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 2 5 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 3 0 0 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 4 0 0 5 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 3 0 0 4 5 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 5 0 0 5 4 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 5 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- S 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2
- U 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4
+ C 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 5 4 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 5 1 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ S 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ U 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2
+ X 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -762,33 +734,37 @@
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 3 4 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 5 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 5 2 1 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- U 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- V 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 5 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 5 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -821,31 +797,32 @@
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0
- C 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 3 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- R 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 4 0 0 0 3
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
- W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- X 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ F 0 0 0 0 2 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0 0 3 3 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 4 3 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 5 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3
+ Y 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
     </t>
   </si>
   <si>
@@ -883,36 +860,36 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- B 2 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 5 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 2 5 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4
- Z 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 3 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ F 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4
+ G 0 0 0 0 0 5 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 3 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 2 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ U 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3
+ Z 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -945,32 +922,29 @@
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- B 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- F 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 2 0 0 0 1
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 4 0 0 0 0 0
- V 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ B 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 2 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 1
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 1 0 1 0 0 4 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 5 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ U 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1008,36 +982,36 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 5 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ B 3 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 5 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 1 2 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- Z 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ D 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 5 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 3
+ K 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 3 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 4 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ U 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
+ Z 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1070,70 +1044,67 @@
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node T? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 4 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- G 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 2 5 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 5 0 0 1 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 2 0 0 0 0 0 4 5 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 5 4 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- Z 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; J -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; H -&gt; I -&gt; W -&gt; V -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; I -&gt; J -&gt; P -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; U -&gt; V -&gt; L -&gt; M -&gt; N -&gt; R -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; X -&gt; R -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; G -&gt; H -&gt; L -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; E -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; Q -&gt; T</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; D -&gt; F -&gt; G -&gt; H -&gt; U -&gt; V -&gt; N -&gt; P -&gt; S -&gt; T</t>
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 3 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 5 0 0 0 5 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 3 0 0 4 0 0 5 0 0 0 0 0 0 0 2 0 0 0 0 0
+ G 0 0 0 0 0 4 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 3 0 0 0 3 0 3 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 1 4 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 3 3 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; U -&gt; V -&gt; W -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; J -&gt; K -&gt; L -&gt; N -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; K -&gt; M -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; F -&gt; L -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; F -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; F -&gt; G -&gt; H -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; D -&gt; E -&gt; J -&gt; Q -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; F -&gt; R -&gt; T</t>
   </si>
   <si>
     <t>The least cost path from node A to node T is A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S -&gt; T. The sequence of nodes is A, D, E, F, I, J, Q, S, and T.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node Z to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1165,37 +1136,33 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node L to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- B 0 0 0 0 0 3 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0
- C 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 3 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0
- K 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- M 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 5 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- P 0 0 0 0 2 0 0 0 2 5 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- V 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- W 0 3 0 0 0 0 0 0 0 0 0 0 0 0 5 5 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node U to node E? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ E 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ H 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 4 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
+ K 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2
+ N 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0
+ O 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 3 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ R 0 1 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 2 0 0
+ S 0 0 0 5 0 0 0 0 0 0 0 2 0 0 0 0 1 2 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node Z to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1227,34 +1194,33 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node K to node W? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 3 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1
- G 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 5 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- M 0 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- N 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- P 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- Q 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0
- W 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
- Z 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+What is the least cost path from node W to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 0 0 4 0 0 0 1
+ B 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0
+ D 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ E 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 3 0 0 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 4 0 4 0 0 0
+ I 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0
+ N 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ Q 4 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ X 0 0 0 4 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1290,38 +1256,38 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node B to node A? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 5
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5
- G 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- L 4 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- R 0 0 0 0 0 5 4 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 5 0 0 0 0 0 0 0 0
- U 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 5 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- X 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- Y 0 0 3 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5 1 0 0
- Z 0 0 0 0 5 5 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node I to node U? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 3 5 2 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ M 0 0 0 0 0 2 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 5 4 5 0 5 0 0 5 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ S 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ U 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node Z to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1353,36 +1319,37 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node U to node N? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- G 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 5 0 5 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0
- J 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 4 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 5 0 0 0 5 0 0 0
- N 0 1 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 5 0 0 0 0 0
- Q 4 0 0 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 1 0 0 0 0
- R 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- T 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0
- U 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0 3
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- W 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node T to node A? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ C 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ F 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ J 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ N 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ P 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Q 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 5 0 3 0 0 3 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
+ W 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node Z to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1414,38 +1381,35 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node D to node A? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 4
- E 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- J 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 2 0 0 0 0 1 0 0 0 0
- M 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0
- O 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- P 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- Q 0 0 2 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0
- T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 4 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- W 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 5
- Y 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- Z 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node O to node E? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 3 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3
+ D 0 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5
+ G 0 0 2 3 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 3 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 1 0 0
+ J 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0
+ K 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ M 0 0 5 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 3 0
+ N 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ P 0 0 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 0
+ Q 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ S 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 5 0 0 0 0 0
+ W 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node Z to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1477,30 +1441,29 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node O to node A? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0
- G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0
- M 0 0 0 0 0 0 0 4 0 3 0 5 0 0 0 0 5 0 0 0 0 0
- N 0 0 0 3 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 5 0
- Q 0 0 0 0 0 5 0 0 0 0 0 0 5 0 0 0 0 0 0 0 3 0
- R 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- T 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
- U 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 5 3 0 0 0 0 5
- V 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 5 0
+What is the least cost path from node S to node F? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 0 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0 5 1 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0
+ C 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ E 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0
+ G 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ J 0 0 4 0 3 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0 2
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 3 0 4 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ Q 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ S 5 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ T 1 5 0 0 0 0 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1536,38 +1499,38 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node D to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- E 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- F 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 2 0 0 0 0 0 0 0
- H 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 5 3 0 0 3 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 3 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0
- L 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 5
- S 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- U 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0
- X 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- Y 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node L? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ D 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0
+ F 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ H 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ J 1 0 0 0 0 4 0 0 0 0 0 0 0 4 5 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 5 0 0 0 0
+ S 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 3 0 4 1
+ U 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ X 0 0 0 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ Z 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node Z to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1599,34 +1562,33 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node V to node R? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 0 2 0 0 3 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 3 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- K 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- O 0 0 0 0 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2
- Q 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- S 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0
- V 0 2 0 4 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- X 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- Y 0 3 0 0 3 0 0 0 4 0 1 0 0 0 0 0 1 4 0 0 0 0 3 2 0 0
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0
+What is the least cost path from node J to node H? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 4 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 4
+ B 0 0 0 0 0 1 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ D 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 0
+ F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 0 0 3 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ I 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 2 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ L 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ O 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0
+ R 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 3 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1662,38 +1624,38 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node B to node D? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 0 0 4 3 0 4 0 1 0 0 0 0 2 2 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 5
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 2 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0
- G 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- I 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- J 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 4 0 0 0 0 0 0 0 0 0
- M 4 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 3 0 0 0 0 0 0 0
- O 1 5 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0 4 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0
- T 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- U 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- V 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- Y 0 0 0 0 0 4 0 2 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- Z 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node L to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0 3 0
+ H 0 4 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 3 0 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 5 0 5 0 0 0 0 0 2 0 0 0 0 2 0 0 3 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 5 3 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ V 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 5 0 0 0 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ Y 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Z 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node Z to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1725,96 +1687,93 @@
  Z 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
 Solution: Z -&gt; W -&gt; U -&gt; X -&gt; A
  Given these examples, answer the following quesiton.
-What is the least cost path from node P to node W? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0
- C 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- M 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- Q 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- T 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 4 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0
- V 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4
- Z 0 0 0 0 0 0 0 2 0 0 0 3 0 1 0 5 0 0 0 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t>L -&gt; J -&gt; P -&gt; W -&gt; O</t>
-  </si>
-  <si>
-    <t>K -&gt; L -&gt; I -&gt; P -&gt; Y -&gt; M -&gt; J -&gt; H -&gt; A -&gt; U -&gt; Z -&gt; F -&gt; W</t>
-  </si>
-  <si>
-    <t>B -&gt; W -&gt; Y -&gt; E -&gt; Z -&gt; L -&gt; A</t>
-  </si>
-  <si>
-    <t>U -&gt; E -&gt; N</t>
-  </si>
-  <si>
-    <t>D -&gt; Z -&gt; X -&gt; Q -&gt; L -&gt; V -&gt; K -&gt; A</t>
-  </si>
-  <si>
-    <t>O -&gt; H -&gt; M -&gt; Q -&gt; F -&gt; T -&gt; S -&gt; G -&gt; A</t>
-  </si>
-  <si>
-    <t>D -&gt; V -&gt; I -&gt; C -&gt; S -&gt; R -&gt; W -&gt; T -&gt; K -&gt; Q -&gt; O</t>
-  </si>
-  <si>
-    <t>V -&gt; B -&gt; Y -&gt; R</t>
-  </si>
-  <si>
-    <t>B -&gt; O -&gt; A -&gt; U -&gt; D</t>
-  </si>
-  <si>
-    <t>P -&gt; Z -&gt; H -&gt; X -&gt; U -&gt; M -&gt; B -&gt; Q -&gt; C -&gt; A -&gt; W</t>
-  </si>
-  <si>
-    <t>The least cost path from node L to node O is L -&gt; I -&gt; H -&gt; E -&gt; O.</t>
-  </si>
-  <si>
-    <t>The least cost path from node K to node W is K -&gt; J -&gt; W with a total cost of 2 + 2 = 4.</t>
-  </si>
-  <si>
-    <t>The least cost path from node B to node A is B -&gt; D -&gt; E -&gt; A with a total cost of 2 + 3 + 2 = 7.</t>
-  </si>
-  <si>
-    <t>The least cost path from node U to node N is U -&gt; X -&gt; A with a total cost of 4 + 4 = 8.</t>
-  </si>
-  <si>
-    <t>The least cost path from node D to node A is D -&gt; U -&gt; X -&gt; A.</t>
-  </si>
-  <si>
-    <t>The least cost path from node O to node A is O -&gt; P -&gt; T -&gt; A.</t>
-  </si>
-  <si>
-    <t>The least cost path from node D to node O is D -&gt; U -&gt; V -&gt; O.</t>
-  </si>
-  <si>
-    <t>The least cost path from node V to node R is V -&gt; U -&gt; X -&gt; A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y -&gt; Z.
-The sequence of nodes is: V, U, X, A, B, C, D, E, F, G, H, I, J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y, and Z.</t>
-  </si>
-  <si>
-    <t>The least cost path from node B to node D is B -&gt; W -&gt; U -&gt; X -&gt; D. The sequence of nodes is B, W, U, and X.</t>
-  </si>
-  <si>
-    <t>The least cost path from node P to node W is P -&gt; S -&gt; T -&gt; W. The sequence of nodes is P, S, T, and W.</t>
+What is the least cost path from node M to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 1 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ B 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ D 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 3 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ H 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 5 0
+ J 1 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ L 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 4 3 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 0 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0
+ R 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ S 0 0 5 0 3 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>U -&gt; M -&gt; J -&gt; R -&gt; G -&gt; E</t>
+  </si>
+  <si>
+    <t>W -&gt; B -&gt; Q -&gt; K -&gt; V -&gt; H -&gt; S -&gt; O</t>
+  </si>
+  <si>
+    <t>I -&gt; S -&gt; Q -&gt; N -&gt; G -&gt; M -&gt; F -&gt; T -&gt; W -&gt; R -&gt; P -&gt; C -&gt; U</t>
+  </si>
+  <si>
+    <t>T -&gt; S -&gt; R -&gt; V -&gt; B -&gt; A</t>
+  </si>
+  <si>
+    <t>O -&gt; V -&gt; M -&gt; C -&gt; G -&gt; D -&gt; K -&gt; T -&gt; P -&gt; E</t>
+  </si>
+  <si>
+    <t>S -&gt; A -&gt; T -&gt; L -&gt; P -&gt; F</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; G -&gt; L</t>
+  </si>
+  <si>
+    <t>J -&gt; B -&gt; F -&gt; V -&gt; H</t>
+  </si>
+  <si>
+    <t>L -&gt; P -&gt; T -&gt; N -&gt; G -&gt; Y</t>
+  </si>
+  <si>
+    <t>M -&gt; J -&gt; A -&gt; X</t>
+  </si>
+  <si>
+    <t>The least cost path from node U to node E is U -&gt; S -&gt; T -&gt; E.</t>
+  </si>
+  <si>
+    <t>The least cost path from node W to node O is W -&gt; U -&gt; X -&gt; A -&gt; M -&gt; N -&gt; O. The sequence of nodes is W -&gt; U -&gt; X -&gt; A -&gt; M -&gt; N -&gt; O.</t>
+  </si>
+  <si>
+    <t>The least cost path from node I to node U is I -&gt; W -&gt; U. The sequence of nodes is I, W, and U.</t>
+  </si>
+  <si>
+    <t>The least cost path from node T to node A is T -&gt; P -&gt; S -&gt; A.</t>
+  </si>
+  <si>
+    <t>The least cost path from node O to node E is O -&gt; M -&gt; A -&gt; E.</t>
+  </si>
+  <si>
+    <t>The least cost path from node S to node F is S -&gt; T -&gt; U -&gt; F.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node L is A -&gt; W -&gt; U -&gt; X -&gt; L.</t>
+  </si>
+  <si>
+    <t>The least cost path from node J to node H is J -&gt; W -&gt; U -&gt; X -&gt; A.</t>
+  </si>
+  <si>
+    <t>The least cost path from node L to node Y is L -&gt; I -&gt; J -&gt; Y with a total cost of 3 + 5 + 2 = 10.</t>
+  </si>
+  <si>
+    <t>The least cost path from node M to node X is M -&gt; L -&gt; N -&gt; X.</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2162,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2217,7 +2176,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2228,10 +2187,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2242,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -2256,10 +2215,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2270,10 +2229,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2284,10 +2243,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2298,10 +2257,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2315,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2326,10 +2285,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2361,142 +2320,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2528,142 +2487,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
